--- a/VerveStacks_BGR/SuppXLS/scen_tsparameters_triple_5.xlsx
+++ b/VerveStacks_BGR/SuppXLS/scen_tsparameters_triple_5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5644F7C-3B79-40D1-A1A9-4E4080AEF0B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0318A338-D39D-4B5E-B843-4D55CFDBFE63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -2688,10 +2688,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S2c0307h13,S2c0307h14,S2d0319h08,S2d0319h17,S2f0323h14,S4aH2,S4h0522h14,S4i0526h18,S5k1002h08,S5l1016h10,S5m1106h09,S5n1126h15,S1b0202h09,S2c0307h15,S2d0319h09,S2f0323h10,S4h0522h11,S4h0522h17,S4i0526h16,S5n1126h09,S5n1126h18,S5o1127h15,S6aH5,S2f0323h11,S2g0330h17,S4h0522h18,S4i0526h11,S5j0916h07,S6p1207h14,S1aH5,S1b0202h07,S2aH4,S2aH5,S2c0307h08,S2f0323h08,S4i0526h14,S5aH2,S5aH5,S5j0916h16,S5k1002h10,S5l1016h13,S5m1106h16,S6aH2,S6p1207h08,S6p1207h09,S6p1207h11,S1aH3,S2f0323h15,S2f0323h18,S4h0522h16,S4i0526h09,S5k1002h12,S5m1106h08,S5o1127h08,S5o1127h14,S5o1127h18,S6p1207h17,S1b0202h08,S1b0202h11,S2c0307h09,S2e0322h08,S2e0322h13,S2g0330h12,S2g0330h13,S3aH2,S4h0522h10,S4i0526h17,S5j0916h14,S5l1016h14,S5l1016h15,S5m1106h18,S5n1126h07,S6p1207h13,S2c0307h17,S2d0319h10,S2e0322h16,S2f0323h07,S2f0323h13,S2g0330h11,S4h0522h08,S5j0916h13,S5n1126h13,S2g0330h18,S4aH5,S4i0526h07,S5j0916h11,S5k1002h09,S5k1002h15,S5k1002h16,S5l1016h16,S5m1106h15,S5n1126h11,S5n1126h16,S5o1127h13,S2c0307h10,S2c0307h18,S2e0322h10,S2g0330h16,S4h0522h13,S4i0526h10,S5k1002h13,S5l1016h07,S1aH4,S1b0202h12,S2aH2,S2c0307h07,S2d0319h13,S2d0319h15,S2f0323h12,S5j0916h10,S5j0916h15,S5j0916h18,S5m1106h10,S5m1106h12,S5m1106h14,S5n1126h10,S5o1127h17,S2c0307h12,S2e0322h11,S4i0526h13,S5k1002h18,S5l1016h09,S5l1016h17,S6p1207h15,S6p1207h18,S1b0202h14,S2d0319h11,S2d0319h12,S2d0319h14,S2d0319h16,S2e0322h12,S2f0323h09,S2g0330h14,S2g0330h15,S3aH5,S4h0522h15,S5aH3,S5k1002h17,S5l1016h18,S5n1126h14,S5o1127h10,S6p1207h07,S1aH2,S1b0202h17,S2aH3,S2c0307h11,S2c0307h16,S2d0319h18,S2e0322h09,S2e0322h14,S2e0322h15,S2f0323h16,S2f0323h17,S4h0522h09,S4i0526h08,S4i0526h12,S5j0916h12,S5j0916h17,S5l1016h08,S5m1106h13,S5m1106h17,S5o1127h09,S6p1207h10,S1b0202h15,S2d0319h07,S2e0322h07,S2g0330h09,S2g0330h10,S3aH3,S4h0522h07,S5j0916h09,S5k1002h07,S5n1126h12,S5n1126h17,S5o1127h11,S5o1127h12,S5o1127h16,S1b0202h10,S1b0202h18,S2e0322h17,S2g0330h07,S3aH4,S4aH3,S4aH4,S4h0522h12,S5j0916h08,S5k1002h11,S5k1002h14,S5m1106h11,S5o1127h07,S6p1207h16,S1b0202h13,S1b0202h16,S2e0322h18,S2g0330h08,S4i0526h15,S5aH4,S5l1016h11,S5l1016h12,S5m1106h07,S5n1126h08,S6aH3,S6aH4,S6p1207h12</t>
-  </si>
-  <si>
-    <t>S1b0202h03,S1b0202h22,S2aH1,S2d0319h03,S2d0319h05,S2d0319h19,S2d0319h22,S2g0330h04,S3aH7,S4h0522h04,S4i0526h22,S5aH8,S5j0916h05,S5j0916h20,S5k1002h03,S5m1106h04,S5m1106h06,S5n1126h19,S6p1207h23,S1b0202h04,S2f0323h22,S4aH8,S5m1106h24,S5o1127h06,S1b0202h19,S2aH6,S2c0307h23,S2e0322h01,S2g0330h19,S3aH1,S5k1002h24,S5l1016h03,S5n1126h05,S5o1127h05,S6p1207h22,S1aH6,S1b0202h05,S1b0202h06,S2c0307h21,S2d0319h23,S2e0322h21,S2g0330h06,S4h0522h20,S4h0522h23,S5j0916h19,S5k1002h02,S5l1016h02,S5l1016h23,S5n1126h24,S1aH7,S2c0307h20,S2d0319h21,S2g0330h01,S3aH6,S4aH7,S4i0526h20,S5aH6,S5aH7,S5j0916h04,S5k1002h04,S5m1106h01,S5m1106h03,S6aH6,S6p1207h03,S6p1207h05,S1b0202h24,S2c0307h03,S2c0307h19,S2d0319h24,S2f0323h03,S3aH8,S4i0526h02,S4i0526h04,S5j0916h03,S5k1002h01,S5l1016h20,S5m1106h05,S5m1106h19,S5n1126h03,S5n1126h23,S1aH1,S1b0202h20,S1b0202h23,S2aH7,S2e0322h03,S2e0322h24,S2f0323h01,S2f0323h20,S2g0330h21,S2g0330h22,S2g0330h24,S4h0522h21,S4h0522h22,S5m1106h02,S5n1126h21,S5o1127h04,S6p1207h24,S2c0307h05,S2c0307h22,S2c0307h24,S2e0322h02,S4h0522h01,S4h0522h03,S4i0526h01,S4i0526h05,S4i0526h21,S4i0526h23,S5j0916h02,S5n1126h22,S5o1127h19,S6p1207h06,S1b0202h02,S1b0202h21,S2aH8,S2c0307h01,S2d0319h04,S2e0322h22,S2e0322h23,S2f0323h02,S4h0522h24,S5j0916h24,S5k1002h05,S5l1016h04,S5l1016h06,S5o1127h22,S2c0307h04,S2d0319h01,S2f0323h05,S2f0323h06,S2f0323h24,S4aH1,S4h0522h05,S5k1002h20,S5l1016h21,S5o1127h02,S5o1127h23,S6aH1,S6p1207h20,S2e0322h20,S2f0323h23,S2g0330h03,S4i0526h03,S5l1016h01,S5l1016h22,S5n1126h06,S5o1127h01,S6aH8,S6p1207h01,S1aH8,S2c0307h02,S2c0307h06,S2e0322h19,S4i0526h19,S4i0526h24,S5aH1,S5j0916h01,S5k1002h22,S5l1016h05,S5l1016h19,S5l1016h24,S5m1106h23,S5n1126h04,S5o1127h21,S6aH7,S2d0319h06,S2d0319h20,S2f0323h21,S2g0330h05,S4h0522h02,S5j0916h06,S5k1002h06,S5k1002h19,S5m1106h22,S5o1127h03,S5o1127h20,S1b0202h01,S2g0330h20,S4aH6,S5j0916h21,S5j0916h23,S5k1002h23,S5n1126h01,S5n1126h02,S6p1207h21,S2d0319h02,S2e0322h05,S2e0322h06,S2f0323h04,S2f0323h19,S2g0330h02,S4h0522h06,S4h0522h19,S5j0916h22,S5m1106h21,S5o1127h24,S6p1207h02,S6p1207h04,S2e0322h04,S2g0330h23,S4i0526h06,S5k1002h21,S5m1106h20,S5n1126h20,S6p1207h19</t>
+    <t>S1aH3,S2f0323h15,S2f0323h18,S4h0522h16,S4i0526h09,S5k1002h12,S5m1106h08,S5o1127h08,S5o1127h14,S5o1127h18,S6p1207h17,S1b0202h15,S2d0319h07,S2e0322h07,S2g0330h09,S2g0330h10,S3aH3,S4h0522h07,S5j0916h09,S5k1002h07,S5n1126h12,S5n1126h17,S5o1127h11,S5o1127h12,S5o1127h16,S1b0202h14,S2d0319h11,S2d0319h12,S2d0319h14,S2d0319h16,S2e0322h12,S2f0323h09,S2g0330h14,S2g0330h15,S3aH5,S4h0522h15,S5aH3,S5k1002h17,S5l1016h18,S5n1126h14,S5o1127h10,S6p1207h07,S2g0330h18,S4aH5,S4i0526h07,S5j0916h11,S5k1002h09,S5k1002h15,S5k1002h16,S5l1016h16,S5m1106h15,S5n1126h11,S5n1126h16,S5o1127h13,S1b0202h13,S1b0202h16,S2e0322h18,S2g0330h08,S4i0526h15,S5aH4,S5l1016h11,S5l1016h12,S5m1106h07,S5n1126h08,S6aH3,S6aH4,S6p1207h12,S1aH4,S1b0202h12,S2aH2,S2c0307h07,S2d0319h13,S2d0319h15,S2f0323h12,S5j0916h10,S5j0916h15,S5j0916h18,S5m1106h10,S5m1106h12,S5m1106h14,S5n1126h10,S5o1127h17,S1aH2,S1b0202h17,S2aH3,S2c0307h11,S2c0307h16,S2d0319h18,S2e0322h09,S2e0322h14,S2e0322h15,S2f0323h16,S2f0323h17,S4h0522h09,S4i0526h08,S4i0526h12,S5j0916h12,S5j0916h17,S5l1016h08,S5m1106h13,S5m1106h17,S5o1127h09,S6p1207h10,S1aH5,S1b0202h07,S2aH4,S2aH5,S2c0307h08,S2f0323h08,S4i0526h14,S5aH2,S5aH5,S5j0916h16,S5k1002h10,S5l1016h13,S5m1106h16,S6aH2,S6p1207h08,S6p1207h09,S6p1207h11,S2f0323h11,S2g0330h17,S4h0522h18,S4i0526h11,S5j0916h07,S6p1207h14,S2c0307h10,S2c0307h18,S2e0322h10,S2g0330h16,S4h0522h13,S4i0526h10,S5k1002h13,S5l1016h07,S2c0307h13,S2c0307h14,S2d0319h08,S2d0319h17,S2f0323h14,S4aH2,S4h0522h14,S4i0526h18,S5k1002h08,S5l1016h10,S5m1106h09,S5n1126h15,S1b0202h08,S1b0202h11,S2c0307h09,S2e0322h08,S2e0322h13,S2g0330h12,S2g0330h13,S3aH2,S4h0522h10,S4i0526h17,S5j0916h14,S5l1016h14,S5l1016h15,S5m1106h18,S5n1126h07,S6p1207h13,S2c0307h12,S2e0322h11,S4i0526h13,S5k1002h18,S5l1016h09,S5l1016h17,S6p1207h15,S6p1207h18,S1b0202h09,S2c0307h15,S2d0319h09,S2f0323h10,S4h0522h11,S4h0522h17,S4i0526h16,S5n1126h09,S5n1126h18,S5o1127h15,S6aH5,S1b0202h10,S1b0202h18,S2e0322h17,S2g0330h07,S3aH4,S4aH3,S4aH4,S4h0522h12,S5j0916h08,S5k1002h11,S5k1002h14,S5m1106h11,S5o1127h07,S6p1207h16,S2c0307h17,S2d0319h10,S2e0322h16,S2f0323h07,S2f0323h13,S2g0330h11,S4h0522h08,S5j0916h13,S5n1126h13</t>
+  </si>
+  <si>
+    <t>S1aH7,S2c0307h20,S2d0319h21,S2g0330h01,S3aH6,S4aH7,S4i0526h20,S5aH6,S5aH7,S5j0916h04,S5k1002h04,S5m1106h01,S5m1106h03,S6aH6,S6p1207h03,S6p1207h05,S1b0202h01,S2g0330h20,S4aH6,S5j0916h21,S5j0916h23,S5k1002h23,S5n1126h01,S5n1126h02,S6p1207h21,S1aH8,S2c0307h02,S2c0307h06,S2e0322h19,S4i0526h19,S4i0526h24,S5aH1,S5j0916h01,S5k1002h22,S5l1016h05,S5l1016h19,S5l1016h24,S5m1106h23,S5n1126h04,S5o1127h21,S6aH7,S2c0307h05,S2c0307h22,S2c0307h24,S2e0322h02,S4h0522h01,S4h0522h03,S4i0526h01,S4i0526h05,S4i0526h21,S4i0526h23,S5j0916h02,S5n1126h22,S5o1127h19,S6p1207h06,S2e0322h04,S2g0330h23,S4i0526h06,S5k1002h21,S5m1106h20,S5n1126h20,S6p1207h19,S2c0307h04,S2d0319h01,S2f0323h05,S2f0323h06,S2f0323h24,S4aH1,S4h0522h05,S5k1002h20,S5l1016h21,S5o1127h02,S5o1127h23,S6aH1,S6p1207h20,S2d0319h06,S2d0319h20,S2f0323h21,S2g0330h05,S4h0522h02,S5j0916h06,S5k1002h06,S5k1002h19,S5m1106h22,S5o1127h03,S5o1127h20,S1aH6,S1b0202h05,S1b0202h06,S2c0307h21,S2d0319h23,S2e0322h21,S2g0330h06,S4h0522h20,S4h0522h23,S5j0916h19,S5k1002h02,S5l1016h02,S5l1016h23,S5n1126h24,S1b0202h19,S2aH6,S2c0307h23,S2e0322h01,S2g0330h19,S3aH1,S5k1002h24,S5l1016h03,S5n1126h05,S5o1127h05,S6p1207h22,S1b0202h02,S1b0202h21,S2aH8,S2c0307h01,S2d0319h04,S2e0322h22,S2e0322h23,S2f0323h02,S4h0522h24,S5j0916h24,S5k1002h05,S5l1016h04,S5l1016h06,S5o1127h22,S1b0202h03,S1b0202h22,S2aH1,S2d0319h03,S2d0319h05,S2d0319h19,S2d0319h22,S2g0330h04,S3aH7,S4h0522h04,S4i0526h22,S5aH8,S5j0916h05,S5j0916h20,S5k1002h03,S5m1106h04,S5m1106h06,S5n1126h19,S6p1207h23,S1b0202h24,S2c0307h03,S2c0307h19,S2d0319h24,S2f0323h03,S3aH8,S4i0526h02,S4i0526h04,S5j0916h03,S5k1002h01,S5l1016h20,S5m1106h05,S5m1106h19,S5n1126h03,S5n1126h23,S2e0322h20,S2f0323h23,S2g0330h03,S4i0526h03,S5l1016h01,S5l1016h22,S5n1126h06,S5o1127h01,S6aH8,S6p1207h01,S1b0202h04,S2f0323h22,S4aH8,S5m1106h24,S5o1127h06,S2d0319h02,S2e0322h05,S2e0322h06,S2f0323h04,S2f0323h19,S2g0330h02,S4h0522h06,S4h0522h19,S5j0916h22,S5m1106h21,S5o1127h24,S6p1207h02,S6p1207h04,S1aH1,S1b0202h20,S1b0202h23,S2aH7,S2e0322h03,S2e0322h24,S2f0323h01,S2f0323h20,S2g0330h21,S2g0330h22,S2g0330h24,S4h0522h21,S4h0522h22,S5m1106h02,S5n1126h21,S5o1127h04,S6p1207h24</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -3262,7 +3262,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S1b0202h03,S1b0202h22,S2aH1,S2d0319h03,S2d0319h05,S2d0319h19,S2d0319h22,S2g0330h04,S3aH7,S4h0522h04,S4i0526h22,S5aH8,S5j0916h05,S5j0916h20,S5k1002h03,S5m1106h04,S5m1106h06,S5n1126h19,S6p1207h23,S1b0202h04,S2f0323h22,S4aH8,S5m1106h24,S5o1127h06,S1b0202h19,S2aH6,S2c0307h23,S2e0322h01,S2g0330h19,S3aH1,S5k1002h24,S5l1016h03,S5n1126h05,S5o1127h05,S6p1207h22,S1aH6,S1b0202h05,S1b0202h06,S2c0307h21,S2d0319h23,S2e0322h21,S2g0330h06,S4h0522h20,S4h0522h23,S5j0916h19,S5k1002h02,S5l1016h02,S5l1016h23,S5n1126h24,S1aH7,S2c0307h20,S2d0319h21,S2g0330h01,S3aH6,S4aH7,S4i0526h20,S5aH6,S5aH7,S5j0916h04,S5k1002h04,S5m1106h01,S5m1106h03,S6aH6,S6p1207h03,S6p1207h05,S1b0202h24,S2c0307h03,S2c0307h19,S2d0319h24,S2f0323h03,S3aH8,S4i0526h02,S4i0526h04,S5j0916h03,S5k1002h01,S5l1016h20,S5m1106h05,S5m1106h19,S5n1126h03,S5n1126h23,S1aH1,S1b0202h20,S1b0202h23,S2aH7,S2e0322h03,S2e0322h24,S2f0323h01,S2f0323h20,S2g0330h21,S2g0330h22,S2g0330h24,S4h0522h21,S4h0522h22,S5m1106h02,S5n1126h21,S5o1127h04,S6p1207h24,S2c0307h05,S2c0307h22,S2c0307h24,S2e0322h02,S4h0522h01,S4h0522h03,S4i0526h01,S4i0526h05,S4i0526h21,S4i0526h23,S5j0916h02,S5n1126h22,S5o1127h19,S6p1207h06,S1b0202h02,S1b0202h21,S2aH8,S2c0307h01,S2d0319h04,S2e0322h22,S2e0322h23,S2f0323h02,S4h0522h24,S5j0916h24,S5k1002h05,S5l1016h04,S5l1016h06,S5o1127h22,S2c0307h04,S2d0319h01,S2f0323h05,S2f0323h06,S2f0323h24,S4aH1,S4h0522h05,S5k1002h20,S5l1016h21,S5o1127h02,S5o1127h23,S6aH1,S6p1207h20,S2e0322h20,S2f0323h23,S2g0330h03,S4i0526h03,S5l1016h01,S5l1016h22,S5n1126h06,S5o1127h01,S6aH8,S6p1207h01,S1aH8,S2c0307h02,S2c0307h06,S2e0322h19,S4i0526h19,S4i0526h24,S5aH1,S5j0916h01,S5k1002h22,S5l1016h05,S5l1016h19,S5l1016h24,S5m1106h23,S5n1126h04,S5o1127h21,S6aH7,S2d0319h06,S2d0319h20,S2f0323h21,S2g0330h05,S4h0522h02,S5j0916h06,S5k1002h06,S5k1002h19,S5m1106h22,S5o1127h03,S5o1127h20,S1b0202h01,S2g0330h20,S4aH6,S5j0916h21,S5j0916h23,S5k1002h23,S5n1126h01,S5n1126h02,S6p1207h21,S2d0319h02,S2e0322h05,S2e0322h06,S2f0323h04,S2f0323h19,S2g0330h02,S4h0522h06,S4h0522h19,S5j0916h22,S5m1106h21,S5o1127h24,S6p1207h02,S6p1207h04,S2e0322h04,S2g0330h23,S4i0526h06,S5k1002h21,S5m1106h20,S5n1126h20,S6p1207h19</v>
+        <v>S1aH7,S2c0307h20,S2d0319h21,S2g0330h01,S3aH6,S4aH7,S4i0526h20,S5aH6,S5aH7,S5j0916h04,S5k1002h04,S5m1106h01,S5m1106h03,S6aH6,S6p1207h03,S6p1207h05,S1b0202h01,S2g0330h20,S4aH6,S5j0916h21,S5j0916h23,S5k1002h23,S5n1126h01,S5n1126h02,S6p1207h21,S1aH8,S2c0307h02,S2c0307h06,S2e0322h19,S4i0526h19,S4i0526h24,S5aH1,S5j0916h01,S5k1002h22,S5l1016h05,S5l1016h19,S5l1016h24,S5m1106h23,S5n1126h04,S5o1127h21,S6aH7,S2c0307h05,S2c0307h22,S2c0307h24,S2e0322h02,S4h0522h01,S4h0522h03,S4i0526h01,S4i0526h05,S4i0526h21,S4i0526h23,S5j0916h02,S5n1126h22,S5o1127h19,S6p1207h06,S2e0322h04,S2g0330h23,S4i0526h06,S5k1002h21,S5m1106h20,S5n1126h20,S6p1207h19,S2c0307h04,S2d0319h01,S2f0323h05,S2f0323h06,S2f0323h24,S4aH1,S4h0522h05,S5k1002h20,S5l1016h21,S5o1127h02,S5o1127h23,S6aH1,S6p1207h20,S2d0319h06,S2d0319h20,S2f0323h21,S2g0330h05,S4h0522h02,S5j0916h06,S5k1002h06,S5k1002h19,S5m1106h22,S5o1127h03,S5o1127h20,S1aH6,S1b0202h05,S1b0202h06,S2c0307h21,S2d0319h23,S2e0322h21,S2g0330h06,S4h0522h20,S4h0522h23,S5j0916h19,S5k1002h02,S5l1016h02,S5l1016h23,S5n1126h24,S1b0202h19,S2aH6,S2c0307h23,S2e0322h01,S2g0330h19,S3aH1,S5k1002h24,S5l1016h03,S5n1126h05,S5o1127h05,S6p1207h22,S1b0202h02,S1b0202h21,S2aH8,S2c0307h01,S2d0319h04,S2e0322h22,S2e0322h23,S2f0323h02,S4h0522h24,S5j0916h24,S5k1002h05,S5l1016h04,S5l1016h06,S5o1127h22,S1b0202h03,S1b0202h22,S2aH1,S2d0319h03,S2d0319h05,S2d0319h19,S2d0319h22,S2g0330h04,S3aH7,S4h0522h04,S4i0526h22,S5aH8,S5j0916h05,S5j0916h20,S5k1002h03,S5m1106h04,S5m1106h06,S5n1126h19,S6p1207h23,S1b0202h24,S2c0307h03,S2c0307h19,S2d0319h24,S2f0323h03,S3aH8,S4i0526h02,S4i0526h04,S5j0916h03,S5k1002h01,S5l1016h20,S5m1106h05,S5m1106h19,S5n1126h03,S5n1126h23,S2e0322h20,S2f0323h23,S2g0330h03,S4i0526h03,S5l1016h01,S5l1016h22,S5n1126h06,S5o1127h01,S6aH8,S6p1207h01,S1b0202h04,S2f0323h22,S4aH8,S5m1106h24,S5o1127h06,S2d0319h02,S2e0322h05,S2e0322h06,S2f0323h04,S2f0323h19,S2g0330h02,S4h0522h06,S4h0522h19,S5j0916h22,S5m1106h21,S5o1127h24,S6p1207h02,S6p1207h04,S1aH1,S1b0202h20,S1b0202h23,S2aH7,S2e0322h03,S2e0322h24,S2f0323h01,S2f0323h20,S2g0330h21,S2g0330h22,S2g0330h24,S4h0522h21,S4h0522h22,S5m1106h02,S5n1126h21,S5o1127h04,S6p1207h24</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -3294,7 +3294,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S2c0307h13,S2c0307h14,S2d0319h08,S2d0319h17,S2f0323h14,S4aH2,S4h0522h14,S4i0526h18,S5k1002h08,S5l1016h10,S5m1106h09,S5n1126h15,S1b0202h09,S2c0307h15,S2d0319h09,S2f0323h10,S4h0522h11,S4h0522h17,S4i0526h16,S5n1126h09,S5n1126h18,S5o1127h15,S6aH5,S2f0323h11,S2g0330h17,S4h0522h18,S4i0526h11,S5j0916h07,S6p1207h14,S1aH5,S1b0202h07,S2aH4,S2aH5,S2c0307h08,S2f0323h08,S4i0526h14,S5aH2,S5aH5,S5j0916h16,S5k1002h10,S5l1016h13,S5m1106h16,S6aH2,S6p1207h08,S6p1207h09,S6p1207h11,S1aH3,S2f0323h15,S2f0323h18,S4h0522h16,S4i0526h09,S5k1002h12,S5m1106h08,S5o1127h08,S5o1127h14,S5o1127h18,S6p1207h17,S1b0202h08,S1b0202h11,S2c0307h09,S2e0322h08,S2e0322h13,S2g0330h12,S2g0330h13,S3aH2,S4h0522h10,S4i0526h17,S5j0916h14,S5l1016h14,S5l1016h15,S5m1106h18,S5n1126h07,S6p1207h13,S2c0307h17,S2d0319h10,S2e0322h16,S2f0323h07,S2f0323h13,S2g0330h11,S4h0522h08,S5j0916h13,S5n1126h13,S2g0330h18,S4aH5,S4i0526h07,S5j0916h11,S5k1002h09,S5k1002h15,S5k1002h16,S5l1016h16,S5m1106h15,S5n1126h11,S5n1126h16,S5o1127h13,S2c0307h10,S2c0307h18,S2e0322h10,S2g0330h16,S4h0522h13,S4i0526h10,S5k1002h13,S5l1016h07,S1aH4,S1b0202h12,S2aH2,S2c0307h07,S2d0319h13,S2d0319h15,S2f0323h12,S5j0916h10,S5j0916h15,S5j0916h18,S5m1106h10,S5m1106h12,S5m1106h14,S5n1126h10,S5o1127h17,S2c0307h12,S2e0322h11,S4i0526h13,S5k1002h18,S5l1016h09,S5l1016h17,S6p1207h15,S6p1207h18,S1b0202h14,S2d0319h11,S2d0319h12,S2d0319h14,S2d0319h16,S2e0322h12,S2f0323h09,S2g0330h14,S2g0330h15,S3aH5,S4h0522h15,S5aH3,S5k1002h17,S5l1016h18,S5n1126h14,S5o1127h10,S6p1207h07,S1aH2,S1b0202h17,S2aH3,S2c0307h11,S2c0307h16,S2d0319h18,S2e0322h09,S2e0322h14,S2e0322h15,S2f0323h16,S2f0323h17,S4h0522h09,S4i0526h08,S4i0526h12,S5j0916h12,S5j0916h17,S5l1016h08,S5m1106h13,S5m1106h17,S5o1127h09,S6p1207h10,S1b0202h15,S2d0319h07,S2e0322h07,S2g0330h09,S2g0330h10,S3aH3,S4h0522h07,S5j0916h09,S5k1002h07,S5n1126h12,S5n1126h17,S5o1127h11,S5o1127h12,S5o1127h16,S1b0202h10,S1b0202h18,S2e0322h17,S2g0330h07,S3aH4,S4aH3,S4aH4,S4h0522h12,S5j0916h08,S5k1002h11,S5k1002h14,S5m1106h11,S5o1127h07,S6p1207h16,S1b0202h13,S1b0202h16,S2e0322h18,S2g0330h08,S4i0526h15,S5aH4,S5l1016h11,S5l1016h12,S5m1106h07,S5n1126h08,S6aH3,S6aH4,S6p1207h12</v>
+        <v>S1aH3,S2f0323h15,S2f0323h18,S4h0522h16,S4i0526h09,S5k1002h12,S5m1106h08,S5o1127h08,S5o1127h14,S5o1127h18,S6p1207h17,S1b0202h15,S2d0319h07,S2e0322h07,S2g0330h09,S2g0330h10,S3aH3,S4h0522h07,S5j0916h09,S5k1002h07,S5n1126h12,S5n1126h17,S5o1127h11,S5o1127h12,S5o1127h16,S1b0202h14,S2d0319h11,S2d0319h12,S2d0319h14,S2d0319h16,S2e0322h12,S2f0323h09,S2g0330h14,S2g0330h15,S3aH5,S4h0522h15,S5aH3,S5k1002h17,S5l1016h18,S5n1126h14,S5o1127h10,S6p1207h07,S2g0330h18,S4aH5,S4i0526h07,S5j0916h11,S5k1002h09,S5k1002h15,S5k1002h16,S5l1016h16,S5m1106h15,S5n1126h11,S5n1126h16,S5o1127h13,S1b0202h13,S1b0202h16,S2e0322h18,S2g0330h08,S4i0526h15,S5aH4,S5l1016h11,S5l1016h12,S5m1106h07,S5n1126h08,S6aH3,S6aH4,S6p1207h12,S1aH4,S1b0202h12,S2aH2,S2c0307h07,S2d0319h13,S2d0319h15,S2f0323h12,S5j0916h10,S5j0916h15,S5j0916h18,S5m1106h10,S5m1106h12,S5m1106h14,S5n1126h10,S5o1127h17,S1aH2,S1b0202h17,S2aH3,S2c0307h11,S2c0307h16,S2d0319h18,S2e0322h09,S2e0322h14,S2e0322h15,S2f0323h16,S2f0323h17,S4h0522h09,S4i0526h08,S4i0526h12,S5j0916h12,S5j0916h17,S5l1016h08,S5m1106h13,S5m1106h17,S5o1127h09,S6p1207h10,S1aH5,S1b0202h07,S2aH4,S2aH5,S2c0307h08,S2f0323h08,S4i0526h14,S5aH2,S5aH5,S5j0916h16,S5k1002h10,S5l1016h13,S5m1106h16,S6aH2,S6p1207h08,S6p1207h09,S6p1207h11,S2f0323h11,S2g0330h17,S4h0522h18,S4i0526h11,S5j0916h07,S6p1207h14,S2c0307h10,S2c0307h18,S2e0322h10,S2g0330h16,S4h0522h13,S4i0526h10,S5k1002h13,S5l1016h07,S2c0307h13,S2c0307h14,S2d0319h08,S2d0319h17,S2f0323h14,S4aH2,S4h0522h14,S4i0526h18,S5k1002h08,S5l1016h10,S5m1106h09,S5n1126h15,S1b0202h08,S1b0202h11,S2c0307h09,S2e0322h08,S2e0322h13,S2g0330h12,S2g0330h13,S3aH2,S4h0522h10,S4i0526h17,S5j0916h14,S5l1016h14,S5l1016h15,S5m1106h18,S5n1126h07,S6p1207h13,S2c0307h12,S2e0322h11,S4i0526h13,S5k1002h18,S5l1016h09,S5l1016h17,S6p1207h15,S6p1207h18,S1b0202h09,S2c0307h15,S2d0319h09,S2f0323h10,S4h0522h11,S4h0522h17,S4i0526h16,S5n1126h09,S5n1126h18,S5o1127h15,S6aH5,S1b0202h10,S1b0202h18,S2e0322h17,S2g0330h07,S3aH4,S4aH3,S4aH4,S4h0522h12,S5j0916h08,S5k1002h11,S5k1002h14,S5m1106h11,S5o1127h07,S6p1207h16,S2c0307h17,S2d0319h10,S2e0322h16,S2f0323h07,S2f0323h13,S2g0330h11,S4h0522h08,S5j0916h13,S5n1126h13</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -3907,7 +3907,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6BC27D9-9996-437B-A976-B1831ECEC698}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A14E0B6E-96A4-4CFC-AC8D-12058BFA8729}">
   <dimension ref="B2:F371"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7000,7 +7000,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A16293B-5F9B-4811-B9FB-FEE22F0E2D24}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B9FB585-7677-4F4C-8C4D-DCD321085518}">
   <dimension ref="B2:O411"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7082,7 +7082,7 @@
         <v>89</v>
       </c>
       <c r="N4">
-        <v>8.161704452335429E-2</v>
+        <v>8.1617044523354304E-2</v>
       </c>
       <c r="O4" t="s">
         <v>889</v>
@@ -7114,10 +7114,10 @@
         <v>469</v>
       </c>
       <c r="M5" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="N5">
-        <v>0.12029500136574706</v>
+        <v>0.19076754984976788</v>
       </c>
       <c r="O5" t="s">
         <v>889</v>
@@ -7149,10 +7149,10 @@
         <v>469</v>
       </c>
       <c r="M6" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="N6">
-        <v>0.1465173449877083</v>
+        <v>0.12029500136574708</v>
       </c>
       <c r="O6" t="s">
         <v>889</v>
@@ -7184,10 +7184,10 @@
         <v>469</v>
       </c>
       <c r="M7" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="N7">
-        <v>0.19076754984976782</v>
+        <v>0.1337339524720022</v>
       </c>
       <c r="O7" t="s">
         <v>889</v>
@@ -7219,10 +7219,10 @@
         <v>469</v>
       </c>
       <c r="M8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="N8">
-        <v>0.13373395247200218</v>
+        <v>0.14651734498770833</v>
       </c>
       <c r="O8" t="s">
         <v>889</v>
@@ -7257,7 +7257,7 @@
         <v>87</v>
       </c>
       <c r="N9">
-        <v>0.52706910680142027</v>
+        <v>0.52706910680142049</v>
       </c>
       <c r="O9" t="s">
         <v>889</v>
@@ -17721,7 +17721,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD81A20E-CA35-4CB8-91FB-2B59515091EB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C6CEF02-92D6-440B-94EA-6455602C0142}">
   <dimension ref="B2:O819"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_BGR/SuppXLS/scen_tsparameters_triple_5.xlsx
+++ b/VerveStacks_BGR/SuppXLS/scen_tsparameters_triple_5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_BGR\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7366CA0-2275-4268-898E-C998CA8676CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A3C4D46-BD10-4B96-B239-496673D864F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -2688,10 +2688,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1aH3,S1b0108h07,S1c0116h08,S1c0116h15,S1d0203h17,S1f0520h10,S1f0520h11,S5i1009h16,S5k1013h15,S5k1013h17,S5n1107h18,S5i1009h15,S5i1009h18,S5j1011h09,S5l1019h07,S5m1025h07,S5m1025h10,S5n1107h09,S6p1210h10,S1aH5,S1b0108h08,S1b0108h12,S1b0108h13,S1c0116h17,S1e0517h13,S2aH4,S2aH5,S5aH5,S5g0916h18,S5h0927h14,S5h0927h15,S5j1011h15,S5k1013h07,S5k1013h09,S5k1013h11,S5n1107h11,S5n1107h15,S6p1210h12,S1c0116h12,S1c0116h13,S1f0520h14,S1f0520h15,S1f0520h17,S5g0916h07,S5g0916h12,S5g0916h14,S5h0927h10,S5i1009h13,S5i1009h14,S5j1011h07,S5k1013h10,S5k1013h18,S5l1019h08,S5l1019h11,S5l1019h12,S6aH7,S6o1207h13,S6p1210h09,S1b0108h11,S1c0116h16,S1d0203h09,S1e0517h11,S1f0520h18,S5i1009h11,S5j1011h17,S5n1107h14,S6o1207h08,S6o1207h15,S1aH6,S1b0108h10,S1e0517h07,S5h0927h18,S5i1009h10,S5j1011h08,S5k1013h12,S5l1019h15,S5m1025h11,S6p1210h08,S1b0108h09,S1b0108h17,S1b0108h18,S1e0517h08,S5i1009h17,S5k1013h16,S5m1025h09,S5n1107h10,S6o1207h10,S1aH4,S1c0116h14,S1d0203h10,S1d0203h15,S4aH6,S5g0916h09,S5j1011h12,S5l1019h17,S5n1107h12,S6o1207h18,S1c0116h11,S1d0203h11,S2aH7,S3aH4,S4aH3,S4aH4,S5j1011h13,S5j1011h14,S5k1013h13,S5m1025h15,S5m1025h16,S6p1210h13,S1c0116h18,S1d0203h18,S1e0517h09,S1e0517h12,S1e0517h15,S1e0517h17,S1f0520h12,S5aH4,S5g0916h08,S5g0916h15,S5j1011h16,S5m1025h12,S6aH3,S6aH4,S6p1210h07,S6p1210h18,S1aH7,S1c0116h07,S1e0517h16,S1f0520h07,S1f0520h09,S2aH3,S3aH6,S4aH7,S5aH6,S5aH7,S5g0916h13,S5h0927h12,S5i1009h09,S5k1013h08,S5l1019h10,S5m1025h08,S5n1107h08,S6aH6,S6o1207h11,S6p1210h11,S1b0108h14,S1b0108h15,S1d0203h07,S1d0203h16,S1e0517h10,S1f0520h16,S3aH7,S5g0916h10,S5l1019h16,S5m1025h17,S6o1207h07,S6o1207h14,S1b0108h16,S1d0203h08,S1d0203h12,S1e0517h18,S4aH5,S5h0927h07,S5h0927h08,S5h0927h17,S5i1009h08,S5i1009h12,S5j1011h10,S5j1011h18,S5l1019h18,S6p1210h14,S1e0517h14,S1f0520h08,S2aH6,S3aH5,S5aH3,S5h0927h13,S5h0927h16,S5i1009h07,S5l1019h13,S5l1019h14,S5m1025h13,S5m1025h18,S5n1107h13,S5n1107h16,S6p1210h17,S1d0203h13,S3aH3,S5g0916h16,S5g0916h17,S5h0927h11,S5n1107h07,S5n1107h17,S6o1207h09,S6o1207h12,S6o1207h17,S6p1210h15,S6p1210h16,S1c0116h09,S1c0116h10,S1d0203h14,S1f0520h13,S5g0916h11,S5h0927h09,S5j1011h11,S5k1013h14,S5l1019h09,S5m1025h14,S6aH5,S6o1207h16</t>
-  </si>
-  <si>
-    <t>S1aH2,S1c0116h04,S1c0116h06,S5g0916h20,S5i1009h02,S5i1009h20,S5k1013h05,S5l1019h24,S6o1207h03,S1b0108h02,S1c0116h22,S1d0203h06,S1d0203h21,S1e0517h04,S1f0520h03,S3aH8,S5i1009h22,S5j1011h01,S5j1011h20,S5l1019h02,S5l1019h23,S5m1025h22,S6p1210h02,S6p1210h21,S1b0108h01,S1c0116h19,S1e0517h01,S5g0916h22,S5h0927h04,S5i1009h01,S5i1009h05,S5i1009h23,S5j1011h02,S5k1013h22,S5m1025h01,S1c0116h20,S1d0203h04,S1d0203h05,S1d0203h19,S1e0517h03,S1e0517h19,S1e0517h21,S1f0520h06,S3aH1,S5h0927h19,S5i1009h21,S5j1011h21,S5j1011h24,S5l1019h01,S5n1107h05,S6o1207h01,S6p1210h23,S1b0108h20,S1c0116h05,S1e0517h02,S2aH1,S5aH8,S5g0916h19,S5h0927h20,S5m1025h21,S5m1025h23,S5n1107h01,S6p1210h03,S1b0108h21,S1d0203h22,S1e0517h23,S1e0517h24,S1f0520h01,S5aH2,S5h0927h21,S5i1009h06,S6aH2,S6aH8,S6p1210h01,S6p1210h19,S6p1210h24,S1aH1,S1d0203h01,S1f0520h19,S5g0916h02,S5i1009h03,S5i1009h04,S5k1013h21,S5m1025h03,S5n1107h22,S6o1207h05,S6o1207h20,S6o1207h21,S1c0116h21,S1c0116h23,S4aH1,S5k1013h02,S5k1013h06,S5l1019h19,S5l1019h20,S5m1025h04,S5n1107h24,S6aH1,S1b0108h05,S1c0116h01,S1d0203h03,S1f0520h24,S5g0916h05,S5g0916h21,S5h0927h05,S5k1013h01,S5l1019h05,S5m1025h05,S6o1207h04,S6o1207h19,S6p1210h05,S1f0520h04,S1f0520h05,S1f0520h22,S5g0916h24,S5j1011h04,S5k1013h24,S5l1019h04,S5l1019h22,S5m1025h19,S5n1107h06,S6p1210h20,S1c0116h24,S1d0203h23,S1e0517h05,S5g0916h01,S5g0916h23,S5i1009h19,S5k1013h03,S5l1019h21,S5m1025h02,S6p1210h04,S6p1210h06,S1b0108h04,S1b0108h19,S1b0108h24,S1e0517h22,S2aH8,S4aH2,S5k1013h20,S5m1025h24,S5n1107h19,S1f0520h20,S3aH2,S5h0927h01,S5h0927h22,S5k1013h19,S5m1025h06,S5m1025h20,S5n1107h02,S5n1107h03,S5n1107h04,S6o1207h22,S6o1207h23,S6o1207h24,S1aH8,S1b0108h23,S1d0203h20,S1e0517h20,S1f0520h21,S1f0520h23,S5aH1,S5h0927h03,S5h0927h23,S5j1011h19,S5j1011h22,S5n1107h21,S5n1107h23,S1b0108h06,S1b0108h22,S1c0116h02,S1d0203h24,S1f0520h02,S2aH2,S5g0916h06,S5h0927h06,S5i1009h24,S5j1011h05,S5j1011h06,S5k1013h04,S5l1019h06,S5n1107h20,S6o1207h02,S6o1207h06,S6p1210h22,S1b0108h03,S1c0116h03,S1d0203h02,S1e0517h06,S4aH8,S5g0916h03,S5g0916h04,S5h0927h02,S5h0927h24,S5j1011h03,S5j1011h23,S5k1013h23,S5l1019h03</t>
+    <t>S1aH5,S1b0108h08,S1b0108h12,S1b0108h13,S1c0116h17,S1e0517h13,S2aH4,S2aH5,S5aH5,S5g0916h18,S5h0927h14,S5h0927h15,S5j1011h15,S5k1013h07,S5k1013h09,S5k1013h11,S5n1107h11,S5n1107h15,S6p1210h12,S5i1009h15,S5i1009h18,S5j1011h09,S5l1019h07,S5m1025h07,S5m1025h10,S5n1107h09,S6p1210h10,S1b0108h11,S1c0116h16,S1d0203h09,S1e0517h11,S1f0520h18,S5i1009h11,S5j1011h17,S5n1107h14,S6o1207h08,S6o1207h15,S1c0116h11,S1d0203h11,S2aH7,S3aH4,S4aH3,S4aH4,S5j1011h13,S5j1011h14,S5k1013h13,S5m1025h15,S5m1025h16,S6p1210h13,S1b0108h14,S1b0108h15,S1d0203h07,S1d0203h16,S1e0517h10,S1f0520h16,S3aH7,S5g0916h10,S5l1019h16,S5m1025h17,S6o1207h07,S6o1207h14,S1aH6,S1b0108h10,S1e0517h07,S5h0927h18,S5i1009h10,S5j1011h08,S5k1013h12,S5l1019h15,S5m1025h11,S6p1210h08,S1d0203h13,S3aH3,S5g0916h16,S5g0916h17,S5h0927h11,S5n1107h07,S5n1107h17,S6o1207h09,S6o1207h12,S6o1207h17,S6p1210h15,S6p1210h16,S1aH7,S1c0116h07,S1e0517h16,S1f0520h07,S1f0520h09,S2aH3,S3aH6,S4aH7,S5aH6,S5aH7,S5g0916h13,S5h0927h12,S5i1009h09,S5k1013h08,S5l1019h10,S5m1025h08,S5n1107h08,S6aH6,S6o1207h11,S6p1210h11,S1e0517h14,S1f0520h08,S2aH6,S3aH5,S5aH3,S5h0927h13,S5h0927h16,S5i1009h07,S5l1019h13,S5l1019h14,S5m1025h13,S5m1025h18,S5n1107h13,S5n1107h16,S6p1210h17,S1b0108h09,S1b0108h17,S1b0108h18,S1e0517h08,S5i1009h17,S5k1013h16,S5m1025h09,S5n1107h10,S6o1207h10,S1c0116h09,S1c0116h10,S1d0203h14,S1f0520h13,S5g0916h11,S5h0927h09,S5j1011h11,S5k1013h14,S5l1019h09,S5m1025h14,S6aH5,S6o1207h16,S1b0108h16,S1d0203h08,S1d0203h12,S1e0517h18,S4aH5,S5h0927h07,S5h0927h08,S5h0927h17,S5i1009h08,S5i1009h12,S5j1011h10,S5j1011h18,S5l1019h18,S6p1210h14,S1c0116h12,S1c0116h13,S1f0520h14,S1f0520h15,S1f0520h17,S5g0916h07,S5g0916h12,S5g0916h14,S5h0927h10,S5i1009h13,S5i1009h14,S5j1011h07,S5k1013h10,S5k1013h18,S5l1019h08,S5l1019h11,S5l1019h12,S6aH7,S6o1207h13,S6p1210h09,S1aH3,S1b0108h07,S1c0116h08,S1c0116h15,S1d0203h17,S1f0520h10,S1f0520h11,S5i1009h16,S5k1013h15,S5k1013h17,S5n1107h18,S1aH4,S1c0116h14,S1d0203h10,S1d0203h15,S4aH6,S5g0916h09,S5j1011h12,S5l1019h17,S5n1107h12,S6o1207h18,S1c0116h18,S1d0203h18,S1e0517h09,S1e0517h12,S1e0517h15,S1e0517h17,S1f0520h12,S5aH4,S5g0916h08,S5g0916h15,S5j1011h16,S5m1025h12,S6aH3,S6aH4,S6p1210h07,S6p1210h18</t>
+  </si>
+  <si>
+    <t>S1b0108h01,S1c0116h19,S1e0517h01,S5g0916h22,S5h0927h04,S5i1009h01,S5i1009h05,S5i1009h23,S5j1011h02,S5k1013h22,S5m1025h01,S1b0108h02,S1c0116h22,S1d0203h06,S1d0203h21,S1e0517h04,S1f0520h03,S3aH8,S5i1009h22,S5j1011h01,S5j1011h20,S5l1019h02,S5l1019h23,S5m1025h22,S6p1210h02,S6p1210h21,S1b0108h20,S1c0116h05,S1e0517h02,S2aH1,S5aH8,S5g0916h19,S5h0927h20,S5m1025h21,S5m1025h23,S5n1107h01,S6p1210h03,S1b0108h05,S1c0116h01,S1d0203h03,S1f0520h24,S5g0916h05,S5g0916h21,S5h0927h05,S5k1013h01,S5l1019h05,S5m1025h05,S6o1207h04,S6o1207h19,S6p1210h05,S1b0108h04,S1b0108h19,S1b0108h24,S1e0517h22,S2aH8,S4aH2,S5k1013h20,S5m1025h24,S5n1107h19,S1b0108h21,S1d0203h22,S1e0517h23,S1e0517h24,S1f0520h01,S5aH2,S5h0927h21,S5i1009h06,S6aH2,S6aH8,S6p1210h01,S6p1210h19,S6p1210h24,S1b0108h06,S1b0108h22,S1c0116h02,S1d0203h24,S1f0520h02,S2aH2,S5g0916h06,S5h0927h06,S5i1009h24,S5j1011h05,S5j1011h06,S5k1013h04,S5l1019h06,S5n1107h20,S6o1207h02,S6o1207h06,S6p1210h22,S1c0116h24,S1d0203h23,S1e0517h05,S5g0916h01,S5g0916h23,S5i1009h19,S5k1013h03,S5l1019h21,S5m1025h02,S6p1210h04,S6p1210h06,S1aH8,S1b0108h23,S1d0203h20,S1e0517h20,S1f0520h21,S1f0520h23,S5aH1,S5h0927h03,S5h0927h23,S5j1011h19,S5j1011h22,S5n1107h21,S5n1107h23,S1aH1,S1d0203h01,S1f0520h19,S5g0916h02,S5i1009h03,S5i1009h04,S5k1013h21,S5m1025h03,S5n1107h22,S6o1207h05,S6o1207h20,S6o1207h21,S1b0108h03,S1c0116h03,S1d0203h02,S1e0517h06,S4aH8,S5g0916h03,S5g0916h04,S5h0927h02,S5h0927h24,S5j1011h03,S5j1011h23,S5k1013h23,S5l1019h03,S1f0520h20,S3aH2,S5h0927h01,S5h0927h22,S5k1013h19,S5m1025h06,S5m1025h20,S5n1107h02,S5n1107h03,S5n1107h04,S6o1207h22,S6o1207h23,S6o1207h24,S1c0116h20,S1d0203h04,S1d0203h05,S1d0203h19,S1e0517h03,S1e0517h19,S1e0517h21,S1f0520h06,S3aH1,S5h0927h19,S5i1009h21,S5j1011h21,S5j1011h24,S5l1019h01,S5n1107h05,S6o1207h01,S6p1210h23,S1aH2,S1c0116h04,S1c0116h06,S5g0916h20,S5i1009h02,S5i1009h20,S5k1013h05,S5l1019h24,S6o1207h03,S1c0116h21,S1c0116h23,S4aH1,S5k1013h02,S5k1013h06,S5l1019h19,S5l1019h20,S5m1025h04,S5n1107h24,S6aH1,S1f0520h04,S1f0520h05,S1f0520h22,S5g0916h24,S5j1011h04,S5k1013h24,S5l1019h04,S5l1019h22,S5m1025h19,S5n1107h06,S6p1210h20</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -3262,7 +3262,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S1aH2,S1c0116h04,S1c0116h06,S5g0916h20,S5i1009h02,S5i1009h20,S5k1013h05,S5l1019h24,S6o1207h03,S1b0108h02,S1c0116h22,S1d0203h06,S1d0203h21,S1e0517h04,S1f0520h03,S3aH8,S5i1009h22,S5j1011h01,S5j1011h20,S5l1019h02,S5l1019h23,S5m1025h22,S6p1210h02,S6p1210h21,S1b0108h01,S1c0116h19,S1e0517h01,S5g0916h22,S5h0927h04,S5i1009h01,S5i1009h05,S5i1009h23,S5j1011h02,S5k1013h22,S5m1025h01,S1c0116h20,S1d0203h04,S1d0203h05,S1d0203h19,S1e0517h03,S1e0517h19,S1e0517h21,S1f0520h06,S3aH1,S5h0927h19,S5i1009h21,S5j1011h21,S5j1011h24,S5l1019h01,S5n1107h05,S6o1207h01,S6p1210h23,S1b0108h20,S1c0116h05,S1e0517h02,S2aH1,S5aH8,S5g0916h19,S5h0927h20,S5m1025h21,S5m1025h23,S5n1107h01,S6p1210h03,S1b0108h21,S1d0203h22,S1e0517h23,S1e0517h24,S1f0520h01,S5aH2,S5h0927h21,S5i1009h06,S6aH2,S6aH8,S6p1210h01,S6p1210h19,S6p1210h24,S1aH1,S1d0203h01,S1f0520h19,S5g0916h02,S5i1009h03,S5i1009h04,S5k1013h21,S5m1025h03,S5n1107h22,S6o1207h05,S6o1207h20,S6o1207h21,S1c0116h21,S1c0116h23,S4aH1,S5k1013h02,S5k1013h06,S5l1019h19,S5l1019h20,S5m1025h04,S5n1107h24,S6aH1,S1b0108h05,S1c0116h01,S1d0203h03,S1f0520h24,S5g0916h05,S5g0916h21,S5h0927h05,S5k1013h01,S5l1019h05,S5m1025h05,S6o1207h04,S6o1207h19,S6p1210h05,S1f0520h04,S1f0520h05,S1f0520h22,S5g0916h24,S5j1011h04,S5k1013h24,S5l1019h04,S5l1019h22,S5m1025h19,S5n1107h06,S6p1210h20,S1c0116h24,S1d0203h23,S1e0517h05,S5g0916h01,S5g0916h23,S5i1009h19,S5k1013h03,S5l1019h21,S5m1025h02,S6p1210h04,S6p1210h06,S1b0108h04,S1b0108h19,S1b0108h24,S1e0517h22,S2aH8,S4aH2,S5k1013h20,S5m1025h24,S5n1107h19,S1f0520h20,S3aH2,S5h0927h01,S5h0927h22,S5k1013h19,S5m1025h06,S5m1025h20,S5n1107h02,S5n1107h03,S5n1107h04,S6o1207h22,S6o1207h23,S6o1207h24,S1aH8,S1b0108h23,S1d0203h20,S1e0517h20,S1f0520h21,S1f0520h23,S5aH1,S5h0927h03,S5h0927h23,S5j1011h19,S5j1011h22,S5n1107h21,S5n1107h23,S1b0108h06,S1b0108h22,S1c0116h02,S1d0203h24,S1f0520h02,S2aH2,S5g0916h06,S5h0927h06,S5i1009h24,S5j1011h05,S5j1011h06,S5k1013h04,S5l1019h06,S5n1107h20,S6o1207h02,S6o1207h06,S6p1210h22,S1b0108h03,S1c0116h03,S1d0203h02,S1e0517h06,S4aH8,S5g0916h03,S5g0916h04,S5h0927h02,S5h0927h24,S5j1011h03,S5j1011h23,S5k1013h23,S5l1019h03</v>
+        <v>S1b0108h01,S1c0116h19,S1e0517h01,S5g0916h22,S5h0927h04,S5i1009h01,S5i1009h05,S5i1009h23,S5j1011h02,S5k1013h22,S5m1025h01,S1b0108h02,S1c0116h22,S1d0203h06,S1d0203h21,S1e0517h04,S1f0520h03,S3aH8,S5i1009h22,S5j1011h01,S5j1011h20,S5l1019h02,S5l1019h23,S5m1025h22,S6p1210h02,S6p1210h21,S1b0108h20,S1c0116h05,S1e0517h02,S2aH1,S5aH8,S5g0916h19,S5h0927h20,S5m1025h21,S5m1025h23,S5n1107h01,S6p1210h03,S1b0108h05,S1c0116h01,S1d0203h03,S1f0520h24,S5g0916h05,S5g0916h21,S5h0927h05,S5k1013h01,S5l1019h05,S5m1025h05,S6o1207h04,S6o1207h19,S6p1210h05,S1b0108h04,S1b0108h19,S1b0108h24,S1e0517h22,S2aH8,S4aH2,S5k1013h20,S5m1025h24,S5n1107h19,S1b0108h21,S1d0203h22,S1e0517h23,S1e0517h24,S1f0520h01,S5aH2,S5h0927h21,S5i1009h06,S6aH2,S6aH8,S6p1210h01,S6p1210h19,S6p1210h24,S1b0108h06,S1b0108h22,S1c0116h02,S1d0203h24,S1f0520h02,S2aH2,S5g0916h06,S5h0927h06,S5i1009h24,S5j1011h05,S5j1011h06,S5k1013h04,S5l1019h06,S5n1107h20,S6o1207h02,S6o1207h06,S6p1210h22,S1c0116h24,S1d0203h23,S1e0517h05,S5g0916h01,S5g0916h23,S5i1009h19,S5k1013h03,S5l1019h21,S5m1025h02,S6p1210h04,S6p1210h06,S1aH8,S1b0108h23,S1d0203h20,S1e0517h20,S1f0520h21,S1f0520h23,S5aH1,S5h0927h03,S5h0927h23,S5j1011h19,S5j1011h22,S5n1107h21,S5n1107h23,S1aH1,S1d0203h01,S1f0520h19,S5g0916h02,S5i1009h03,S5i1009h04,S5k1013h21,S5m1025h03,S5n1107h22,S6o1207h05,S6o1207h20,S6o1207h21,S1b0108h03,S1c0116h03,S1d0203h02,S1e0517h06,S4aH8,S5g0916h03,S5g0916h04,S5h0927h02,S5h0927h24,S5j1011h03,S5j1011h23,S5k1013h23,S5l1019h03,S1f0520h20,S3aH2,S5h0927h01,S5h0927h22,S5k1013h19,S5m1025h06,S5m1025h20,S5n1107h02,S5n1107h03,S5n1107h04,S6o1207h22,S6o1207h23,S6o1207h24,S1c0116h20,S1d0203h04,S1d0203h05,S1d0203h19,S1e0517h03,S1e0517h19,S1e0517h21,S1f0520h06,S3aH1,S5h0927h19,S5i1009h21,S5j1011h21,S5j1011h24,S5l1019h01,S5n1107h05,S6o1207h01,S6p1210h23,S1aH2,S1c0116h04,S1c0116h06,S5g0916h20,S5i1009h02,S5i1009h20,S5k1013h05,S5l1019h24,S6o1207h03,S1c0116h21,S1c0116h23,S4aH1,S5k1013h02,S5k1013h06,S5l1019h19,S5l1019h20,S5m1025h04,S5n1107h24,S6aH1,S1f0520h04,S1f0520h05,S1f0520h22,S5g0916h24,S5j1011h04,S5k1013h24,S5l1019h04,S5l1019h22,S5m1025h19,S5n1107h06,S6p1210h20</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -3294,7 +3294,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1aH3,S1b0108h07,S1c0116h08,S1c0116h15,S1d0203h17,S1f0520h10,S1f0520h11,S5i1009h16,S5k1013h15,S5k1013h17,S5n1107h18,S5i1009h15,S5i1009h18,S5j1011h09,S5l1019h07,S5m1025h07,S5m1025h10,S5n1107h09,S6p1210h10,S1aH5,S1b0108h08,S1b0108h12,S1b0108h13,S1c0116h17,S1e0517h13,S2aH4,S2aH5,S5aH5,S5g0916h18,S5h0927h14,S5h0927h15,S5j1011h15,S5k1013h07,S5k1013h09,S5k1013h11,S5n1107h11,S5n1107h15,S6p1210h12,S1c0116h12,S1c0116h13,S1f0520h14,S1f0520h15,S1f0520h17,S5g0916h07,S5g0916h12,S5g0916h14,S5h0927h10,S5i1009h13,S5i1009h14,S5j1011h07,S5k1013h10,S5k1013h18,S5l1019h08,S5l1019h11,S5l1019h12,S6aH7,S6o1207h13,S6p1210h09,S1b0108h11,S1c0116h16,S1d0203h09,S1e0517h11,S1f0520h18,S5i1009h11,S5j1011h17,S5n1107h14,S6o1207h08,S6o1207h15,S1aH6,S1b0108h10,S1e0517h07,S5h0927h18,S5i1009h10,S5j1011h08,S5k1013h12,S5l1019h15,S5m1025h11,S6p1210h08,S1b0108h09,S1b0108h17,S1b0108h18,S1e0517h08,S5i1009h17,S5k1013h16,S5m1025h09,S5n1107h10,S6o1207h10,S1aH4,S1c0116h14,S1d0203h10,S1d0203h15,S4aH6,S5g0916h09,S5j1011h12,S5l1019h17,S5n1107h12,S6o1207h18,S1c0116h11,S1d0203h11,S2aH7,S3aH4,S4aH3,S4aH4,S5j1011h13,S5j1011h14,S5k1013h13,S5m1025h15,S5m1025h16,S6p1210h13,S1c0116h18,S1d0203h18,S1e0517h09,S1e0517h12,S1e0517h15,S1e0517h17,S1f0520h12,S5aH4,S5g0916h08,S5g0916h15,S5j1011h16,S5m1025h12,S6aH3,S6aH4,S6p1210h07,S6p1210h18,S1aH7,S1c0116h07,S1e0517h16,S1f0520h07,S1f0520h09,S2aH3,S3aH6,S4aH7,S5aH6,S5aH7,S5g0916h13,S5h0927h12,S5i1009h09,S5k1013h08,S5l1019h10,S5m1025h08,S5n1107h08,S6aH6,S6o1207h11,S6p1210h11,S1b0108h14,S1b0108h15,S1d0203h07,S1d0203h16,S1e0517h10,S1f0520h16,S3aH7,S5g0916h10,S5l1019h16,S5m1025h17,S6o1207h07,S6o1207h14,S1b0108h16,S1d0203h08,S1d0203h12,S1e0517h18,S4aH5,S5h0927h07,S5h0927h08,S5h0927h17,S5i1009h08,S5i1009h12,S5j1011h10,S5j1011h18,S5l1019h18,S6p1210h14,S1e0517h14,S1f0520h08,S2aH6,S3aH5,S5aH3,S5h0927h13,S5h0927h16,S5i1009h07,S5l1019h13,S5l1019h14,S5m1025h13,S5m1025h18,S5n1107h13,S5n1107h16,S6p1210h17,S1d0203h13,S3aH3,S5g0916h16,S5g0916h17,S5h0927h11,S5n1107h07,S5n1107h17,S6o1207h09,S6o1207h12,S6o1207h17,S6p1210h15,S6p1210h16,S1c0116h09,S1c0116h10,S1d0203h14,S1f0520h13,S5g0916h11,S5h0927h09,S5j1011h11,S5k1013h14,S5l1019h09,S5m1025h14,S6aH5,S6o1207h16</v>
+        <v>S1aH5,S1b0108h08,S1b0108h12,S1b0108h13,S1c0116h17,S1e0517h13,S2aH4,S2aH5,S5aH5,S5g0916h18,S5h0927h14,S5h0927h15,S5j1011h15,S5k1013h07,S5k1013h09,S5k1013h11,S5n1107h11,S5n1107h15,S6p1210h12,S5i1009h15,S5i1009h18,S5j1011h09,S5l1019h07,S5m1025h07,S5m1025h10,S5n1107h09,S6p1210h10,S1b0108h11,S1c0116h16,S1d0203h09,S1e0517h11,S1f0520h18,S5i1009h11,S5j1011h17,S5n1107h14,S6o1207h08,S6o1207h15,S1c0116h11,S1d0203h11,S2aH7,S3aH4,S4aH3,S4aH4,S5j1011h13,S5j1011h14,S5k1013h13,S5m1025h15,S5m1025h16,S6p1210h13,S1b0108h14,S1b0108h15,S1d0203h07,S1d0203h16,S1e0517h10,S1f0520h16,S3aH7,S5g0916h10,S5l1019h16,S5m1025h17,S6o1207h07,S6o1207h14,S1aH6,S1b0108h10,S1e0517h07,S5h0927h18,S5i1009h10,S5j1011h08,S5k1013h12,S5l1019h15,S5m1025h11,S6p1210h08,S1d0203h13,S3aH3,S5g0916h16,S5g0916h17,S5h0927h11,S5n1107h07,S5n1107h17,S6o1207h09,S6o1207h12,S6o1207h17,S6p1210h15,S6p1210h16,S1aH7,S1c0116h07,S1e0517h16,S1f0520h07,S1f0520h09,S2aH3,S3aH6,S4aH7,S5aH6,S5aH7,S5g0916h13,S5h0927h12,S5i1009h09,S5k1013h08,S5l1019h10,S5m1025h08,S5n1107h08,S6aH6,S6o1207h11,S6p1210h11,S1e0517h14,S1f0520h08,S2aH6,S3aH5,S5aH3,S5h0927h13,S5h0927h16,S5i1009h07,S5l1019h13,S5l1019h14,S5m1025h13,S5m1025h18,S5n1107h13,S5n1107h16,S6p1210h17,S1b0108h09,S1b0108h17,S1b0108h18,S1e0517h08,S5i1009h17,S5k1013h16,S5m1025h09,S5n1107h10,S6o1207h10,S1c0116h09,S1c0116h10,S1d0203h14,S1f0520h13,S5g0916h11,S5h0927h09,S5j1011h11,S5k1013h14,S5l1019h09,S5m1025h14,S6aH5,S6o1207h16,S1b0108h16,S1d0203h08,S1d0203h12,S1e0517h18,S4aH5,S5h0927h07,S5h0927h08,S5h0927h17,S5i1009h08,S5i1009h12,S5j1011h10,S5j1011h18,S5l1019h18,S6p1210h14,S1c0116h12,S1c0116h13,S1f0520h14,S1f0520h15,S1f0520h17,S5g0916h07,S5g0916h12,S5g0916h14,S5h0927h10,S5i1009h13,S5i1009h14,S5j1011h07,S5k1013h10,S5k1013h18,S5l1019h08,S5l1019h11,S5l1019h12,S6aH7,S6o1207h13,S6p1210h09,S1aH3,S1b0108h07,S1c0116h08,S1c0116h15,S1d0203h17,S1f0520h10,S1f0520h11,S5i1009h16,S5k1013h15,S5k1013h17,S5n1107h18,S1aH4,S1c0116h14,S1d0203h10,S1d0203h15,S4aH6,S5g0916h09,S5j1011h12,S5l1019h17,S5n1107h12,S6o1207h18,S1c0116h18,S1d0203h18,S1e0517h09,S1e0517h12,S1e0517h15,S1e0517h17,S1f0520h12,S5aH4,S5g0916h08,S5g0916h15,S5j1011h16,S5m1025h12,S6aH3,S6aH4,S6p1210h07,S6p1210h18</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -3907,7 +3907,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BEFCD5A-0A88-401E-A043-A0EAAE0F668D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E358D51-E5FA-48CE-BA68-F735A45DEA3E}">
   <dimension ref="B2:F371"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7000,7 +7000,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A6612A0-CBFC-46D6-95CF-568F7EF03576}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38FA2B21-9633-45CF-B9D0-00093E579618}">
   <dimension ref="B2:O411"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7114,10 +7114,10 @@
         <v>878</v>
       </c>
       <c r="M5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="N5">
-        <v>8.5878175361922965E-2</v>
+        <v>0.11210051898388418</v>
       </c>
       <c r="O5" t="s">
         <v>889</v>
@@ -7184,10 +7184,10 @@
         <v>878</v>
       </c>
       <c r="M7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="N7">
-        <v>0.11210051898388418</v>
+        <v>8.5878175361922965E-2</v>
       </c>
       <c r="O7" t="s">
         <v>889</v>
@@ -7219,10 +7219,10 @@
         <v>878</v>
       </c>
       <c r="M8" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="N8">
-        <v>0.1858508604206501</v>
+        <v>0.14323955203496314</v>
       </c>
       <c r="O8" t="s">
         <v>889</v>
@@ -7254,10 +7254,10 @@
         <v>878</v>
       </c>
       <c r="M9" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="N9">
-        <v>0.14323955203496314</v>
+        <v>0.1858508604206501</v>
       </c>
       <c r="O9" t="s">
         <v>889</v>
@@ -17721,7 +17721,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{898EA718-EA4C-43F8-8C66-9907D42F4569}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9D125C9-BE12-4FD3-877F-026372DDCAF3}">
   <dimension ref="B2:O819"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
